--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilke Willems\Desktop\Kübler Ecxel\Programmieren\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels Demke\OneDrive - Helmut-Schmidt-Universität\Dokumente\GitHub\LeSuReFo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_959A56237F008BB1F9D57893C172CFC4A6FBC775" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AAF5137B-D086-4D19-821E-BFF741753F88}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9924" windowHeight="5568"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9923" windowHeight="5565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="36">
   <si>
     <t>nid</t>
   </si>
@@ -138,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,21 +162,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -183,44 +178,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -501,241 +475,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="5" width="21.33203125" customWidth="1"/>
+    <col min="1" max="16384" width="33.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
         <v>100</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <v>1000</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="63.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>300</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="63.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>500</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="114.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
         <v>700</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="2">
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
         <v>600</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
         <v>500</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="2">
         <v>6000</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="2">
         <v>6000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B55D64EF04374D4FA4E9FE6ABEF93A43" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a5a4a5a69d9d249e35f3eef3108d85c1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e744d089-a1ae-4cfd-980c-2cbf8abc2a2e" xmlns:ns3="11c6a029-b440-4975-9de9-ab29cf645df4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99dcccd8fe0fd4954035ea83df3de834" ns2:_="" ns3:_="">
     <xsd:import namespace="e744d089-a1ae-4cfd-980c-2cbf8abc2a2e"/>
@@ -912,19 +895,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC287A7-A7DA-4DFD-A36F-E74E778C2366}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B68EC02-39D8-4501-956B-6043FA212086}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B68EC02-39D8-4501-956B-6043FA212086}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC287A7-A7DA-4DFD-A36F-E74E778C2366}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e744d089-a1ae-4cfd-980c-2cbf8abc2a2e"/>
+    <ds:schemaRef ds:uri="11c6a029-b440-4975-9de9-ab29cf645df4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels Demke\OneDrive - Helmut-Schmidt-Universität\Dokumente\GitHub\LeSuReFo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_959A56237F008BB1F9D57893C172CFC4A6FBC775" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AAF5137B-D086-4D19-821E-BFF741753F88}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_959A56237F008BB1F9D57893C172CFC4A6FBC775" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6BA04324-1C61-43EB-80B4-D70B97786450}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9923" windowHeight="5565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>nid</t>
   </si>
@@ -479,15 +479,16 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="33.06640625" style="2"/>
+    <col min="1" max="1" width="3.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="33.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -533,7 +534,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -556,7 +557,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="63.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="38.25" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -579,7 +580,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="63.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -602,7 +603,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="114.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -625,7 +626,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -710,15 +711,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B55D64EF04374D4FA4E9FE6ABEF93A43" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a5a4a5a69d9d249e35f3eef3108d85c1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e744d089-a1ae-4cfd-980c-2cbf8abc2a2e" xmlns:ns3="11c6a029-b440-4975-9de9-ab29cf645df4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99dcccd8fe0fd4954035ea83df3de834" ns2:_="" ns3:_="">
     <xsd:import namespace="e744d089-a1ae-4cfd-980c-2cbf8abc2a2e"/>
@@ -895,15 +887,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B68EC02-39D8-4501-956B-6043FA212086}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC287A7-A7DA-4DFD-A36F-E74E778C2366}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -920,4 +913,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B68EC02-39D8-4501-956B-6043FA212086}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>